--- a/Suicidios.xlsx
+++ b/Suicidios.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Moises Almanzar\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Moises Almanzar\Desktop\Proyecto Samsung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1919E7C3-DBC7-4C99-8255-BF90A0C3CFCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A80B5FC7-2BAD-4448-954D-EEFC75E51E4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9600" windowHeight="11400" xr2:uid="{B7A95822-AA11-415D-AA6A-F8D9531A7EF0}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{B7A95822-AA11-415D-AA6A-F8D9531A7EF0}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Fecha</t>
   </si>
@@ -57,144 +57,6 @@
   </si>
   <si>
     <t>Suicidios por 100.000</t>
-  </si>
-  <si>
-    <t>2,59</t>
-  </si>
-  <si>
-    <t>11,18</t>
-  </si>
-  <si>
-    <t>7,22</t>
-  </si>
-  <si>
-    <t>2,49</t>
-  </si>
-  <si>
-    <t>10,97</t>
-  </si>
-  <si>
-    <t>7,04</t>
-  </si>
-  <si>
-    <t>2,52</t>
-  </si>
-  <si>
-    <t>10,92</t>
-  </si>
-  <si>
-    <t>7,01</t>
-  </si>
-  <si>
-    <t>3,12</t>
-  </si>
-  <si>
-    <t>14,61</t>
-  </si>
-  <si>
-    <t>9,24</t>
-  </si>
-  <si>
-    <t>2,33</t>
-  </si>
-  <si>
-    <t>9,78</t>
-  </si>
-  <si>
-    <t>6,30</t>
-  </si>
-  <si>
-    <t>2,28</t>
-  </si>
-  <si>
-    <t>11,02</t>
-  </si>
-  <si>
-    <t>6,91</t>
-  </si>
-  <si>
-    <t>2,08</t>
-  </si>
-  <si>
-    <t>9,80</t>
-  </si>
-  <si>
-    <t>6,16</t>
-  </si>
-  <si>
-    <t>2,04</t>
-  </si>
-  <si>
-    <t>10,03</t>
-  </si>
-  <si>
-    <t>6,24</t>
-  </si>
-  <si>
-    <t>2,14</t>
-  </si>
-  <si>
-    <t>9,73</t>
-  </si>
-  <si>
-    <t>6,14</t>
-  </si>
-  <si>
-    <t>2,15</t>
-  </si>
-  <si>
-    <t>11,12</t>
-  </si>
-  <si>
-    <t>6,86</t>
-  </si>
-  <si>
-    <t>2,68</t>
-  </si>
-  <si>
-    <t>14,62</t>
-  </si>
-  <si>
-    <t>8,93</t>
-  </si>
-  <si>
-    <t>2,88</t>
-  </si>
-  <si>
-    <t>13,82</t>
-  </si>
-  <si>
-    <t>8,61</t>
-  </si>
-  <si>
-    <t>13,65</t>
-  </si>
-  <si>
-    <t>8,33</t>
-  </si>
-  <si>
-    <t>2,55</t>
-  </si>
-  <si>
-    <t>12,54</t>
-  </si>
-  <si>
-    <t>7,77</t>
-  </si>
-  <si>
-    <t>2,64</t>
-  </si>
-  <si>
-    <t>13,80</t>
-  </si>
-  <si>
-    <t>8,45</t>
-  </si>
-  <si>
-    <t>2,32</t>
-  </si>
-  <si>
-    <t>6,9</t>
   </si>
 </sst>
 </file>
@@ -575,7 +437,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G20"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -616,14 +478,14 @@
       <c r="D2" s="2">
         <v>720</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>9</v>
+      <c r="E2" s="2">
+        <v>2.59</v>
+      </c>
+      <c r="F2" s="2">
+        <v>11.18</v>
+      </c>
+      <c r="G2" s="2">
+        <v>7.22</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
@@ -639,14 +501,14 @@
       <c r="D3" s="2">
         <v>696</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>12</v>
+      <c r="E3" s="2">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="F3" s="2">
+        <v>10.97</v>
+      </c>
+      <c r="G3" s="2">
+        <v>7.04</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
@@ -662,14 +524,14 @@
       <c r="D4" s="2">
         <v>686</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>15</v>
+      <c r="E4" s="2">
+        <v>2.52</v>
+      </c>
+      <c r="F4" s="2">
+        <v>10.92</v>
+      </c>
+      <c r="G4" s="2">
+        <v>7.01</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
@@ -685,14 +547,14 @@
       <c r="D5" s="2">
         <v>895</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>18</v>
+      <c r="E5" s="2">
+        <v>3.12</v>
+      </c>
+      <c r="F5" s="2">
+        <v>14.61</v>
+      </c>
+      <c r="G5" s="2">
+        <v>9.24</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
@@ -708,14 +570,14 @@
       <c r="D6" s="2">
         <v>603</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>21</v>
+      <c r="E6" s="2">
+        <v>2.33</v>
+      </c>
+      <c r="F6" s="2">
+        <v>9.7799999999999994</v>
+      </c>
+      <c r="G6" s="2">
+        <v>6.3</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
@@ -731,14 +593,14 @@
       <c r="D7" s="2">
         <v>655</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>24</v>
+      <c r="E7" s="2">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="F7" s="2">
+        <v>11.02</v>
+      </c>
+      <c r="G7" s="2">
+        <v>6.91</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
@@ -754,14 +616,14 @@
       <c r="D8" s="2">
         <v>577</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>27</v>
+      <c r="E8" s="2">
+        <v>2.08</v>
+      </c>
+      <c r="F8" s="2">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="G8" s="2">
+        <v>6.16</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
@@ -777,14 +639,14 @@
       <c r="D9" s="2">
         <v>579</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>30</v>
+      <c r="E9" s="2">
+        <v>2.04</v>
+      </c>
+      <c r="F9" s="2">
+        <v>10.029999999999999</v>
+      </c>
+      <c r="G9" s="2">
+        <v>6.24</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
@@ -800,14 +662,14 @@
       <c r="D10" s="2">
         <v>563</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>33</v>
+      <c r="E10" s="2">
+        <v>2.14</v>
+      </c>
+      <c r="F10" s="2">
+        <v>9.73</v>
+      </c>
+      <c r="G10" s="2">
+        <v>6.14</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.45">
@@ -823,14 +685,14 @@
       <c r="D11" s="2">
         <v>622</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>36</v>
+      <c r="E11" s="2">
+        <v>2.15</v>
+      </c>
+      <c r="F11" s="2">
+        <v>11.12</v>
+      </c>
+      <c r="G11" s="2">
+        <v>6.86</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.45">
@@ -846,14 +708,14 @@
       <c r="D12" s="2">
         <v>800</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>39</v>
+      <c r="E12" s="2">
+        <v>2.68</v>
+      </c>
+      <c r="F12" s="2">
+        <v>14.62</v>
+      </c>
+      <c r="G12" s="2">
+        <v>8.93</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.45">
@@ -869,14 +731,14 @@
       <c r="D13" s="2">
         <v>762</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>42</v>
+      <c r="E13" s="2">
+        <v>2.88</v>
+      </c>
+      <c r="F13" s="2">
+        <v>13.82</v>
+      </c>
+      <c r="G13" s="2">
+        <v>8.61</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
@@ -892,14 +754,14 @@
       <c r="D14" s="2">
         <v>729</v>
       </c>
-      <c r="E14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>44</v>
+      <c r="E14" s="2">
+        <v>2.52</v>
+      </c>
+      <c r="F14" s="2">
+        <v>13.65</v>
+      </c>
+      <c r="G14" s="2">
+        <v>8.33</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.45">
@@ -915,14 +777,14 @@
       <c r="D15" s="2">
         <v>670</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>47</v>
+      <c r="E15" s="2">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F15" s="2">
+        <v>12.54</v>
+      </c>
+      <c r="G15" s="2">
+        <v>7.77</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.45">
@@ -938,14 +800,14 @@
       <c r="D16" s="2">
         <v>720</v>
       </c>
-      <c r="E16" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>50</v>
+      <c r="E16" s="2">
+        <v>2.64</v>
+      </c>
+      <c r="F16" s="2">
+        <v>13.8</v>
+      </c>
+      <c r="G16" s="2">
+        <v>8.4499999999999993</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.45">
@@ -961,14 +823,14 @@
       <c r="D17" s="2">
         <v>581</v>
       </c>
-      <c r="E17" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>52</v>
+      <c r="E17" s="2">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="F17" s="2">
+        <v>11.18</v>
+      </c>
+      <c r="G17" s="2">
+        <v>6.9</v>
       </c>
     </row>
   </sheetData>
